--- a/assets/excel/data_pc.xlsx
+++ b/assets/excel/data_pc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Devices</t>
   </si>
@@ -71,52 +71,52 @@
     <t>Wireless Adapter</t>
   </si>
   <si>
-    <t>PC</t>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Asusx</t>
+  </si>
+  <si>
+    <t>A455L</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>2017-03-06</t>
+  </si>
+  <si>
+    <t>48 Month</t>
+  </si>
+  <si>
+    <t>hello cuy</t>
+  </si>
+  <si>
+    <t>KSL-040</t>
+  </si>
+  <si>
+    <t>Firman Alhadiansyah</t>
+  </si>
+  <si>
+    <t>Bandung Office</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Asus</t>
   </si>
   <si>
-    <t>A455L</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>2017-03-06</t>
-  </si>
-  <si>
-    <t>48 Month</t>
-  </si>
-  <si>
-    <t>asdfasfffaasdfaeraw asfsa asdfsa gfhfd dfhdfh 12 safas a adsf wer</t>
-  </si>
-  <si>
-    <t>KSL-040</t>
-  </si>
-  <si>
-    <t>Firman Alhadiansyah</t>
-  </si>
-  <si>
-    <t>Bandung Office</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
     <t>2017-08-08</t>
   </si>
   <si>
     <t>1 Month</t>
   </si>
   <si>
-    <t>alus</t>
+    <t>alus euy</t>
   </si>
   <si>
     <t>KSL-038</t>
@@ -152,34 +152,28 @@
     <t>Bad</t>
   </si>
   <si>
+    <t>TESTX</t>
+  </si>
+  <si>
     <t>Hello22</t>
   </si>
   <si>
+    <t>2017-09-13</t>
+  </si>
+  <si>
     <t>24 Month</t>
   </si>
   <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>KSL123</t>
+    <t>sdafsadfasf</t>
+  </si>
+  <si>
+    <t>TEST-002</t>
   </si>
   <si>
     <t>Udin Cihuahua</t>
   </si>
   <si>
     <t>In Service</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>2017-09-13</t>
-  </si>
-  <si>
-    <t>sdafsadfasf</t>
-  </si>
-  <si>
-    <t>TEST-002-1</t>
   </si>
 </sst>
 </file>
@@ -518,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,10 +634,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -696,7 +690,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -740,40 +734,40 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>123</v>
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>156000</v>
+        <v>520000</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -791,62 +785,6 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
-        <v>520000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
         <v>36</v>
       </c>
     </row>
